--- a/Dimension Tables/Passenger Count.xlsx
+++ b/Dimension Tables/Passenger Count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\PowerBI Projects\Trips Project\NYC-Trips-Project\Dimension Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B99FB8-0880-4029-AB46-E978C1390732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D54945-5236-4669-8C9B-17061ED01937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{025DDFFB-89C7-4D2C-BFB4-8EF5F93A96EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{025DDFFB-89C7-4D2C-BFB4-8EF5F93A96EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -94,7 +94,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -111,6 +111,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55329C45-2521-4964-9D64-B879FA6DD1DD}" name="Table1" displayName="Table1" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{55329C45-2521-4964-9D64-B879FA6DD1DD}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F9A053B0-C8BA-4F13-A6E9-89F6232A9E16}" name="Code"/>
+    <tableColumn id="2" xr3:uid="{AA0B95C1-08AF-4681-BB22-12EC13471423}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,11 +444,12 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD10"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -466,5 +478,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>